--- a/dados/2_dados_trabalhados/POPULACAO/POPULACAO.xlsx
+++ b/dados/2_dados_trabalhados/POPULACAO/POPULACAO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1J7DZjBcViwSrd019Kf0D4ycuaaZPjbfP\IBD\dados\dados_manipulados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\guamaralb\UFMG\UFMG-GradSI-IBD-TP02\dados\2_dados_trabalhados\POPULACAO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384A4940-8F4E-47FB-8BBD-5880F591A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8D3C8-689E-4367-AB15-DB316F66BD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,13 +41,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>populacao</t>
-  </si>
-  <si>
     <t>ano</t>
   </si>
   <si>
     <t>ibge7</t>
+  </si>
+  <si>
+    <t>qnt</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:C3413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,13 +390,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
